--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
@@ -496,28 +496,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.15271569469604</v>
+        <v>0.85015084981737</v>
       </c>
       <c r="B2" t="n">
-        <v>7.10431758513052</v>
+        <v>3.45056088504837</v>
       </c>
       <c r="C2" t="n">
-        <v>36.843709045603</v>
+        <v>20.4201429576438</v>
       </c>
       <c r="D2" t="n">
-        <v>56.2916859418986</v>
+        <v>33.0397669261733</v>
       </c>
       <c r="E2" t="n">
-        <v>24.8024566273696</v>
+        <v>14.933818440077</v>
       </c>
       <c r="F2" t="n">
-        <v>18.5586312464808</v>
+        <v>11.3192138942692</v>
       </c>
       <c r="G2" t="n">
-        <v>15.87667312185</v>
+        <v>9.75383047697829</v>
       </c>
       <c r="H2" t="n">
-        <v>14.3809670161893</v>
+        <v>8.8742419398825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.45679208573848</v>
+        <v>1.36936102633612</v>
       </c>
       <c r="B3" t="n">
-        <v>8.01766664614875</v>
+        <v>4.96883793353231</v>
       </c>
       <c r="C3" t="n">
-        <v>41.3697948937688</v>
+        <v>27.693378352848</v>
       </c>
       <c r="D3" t="n">
-        <v>62.8728590915326</v>
+        <v>43.5632015357534</v>
       </c>
       <c r="E3" t="n">
-        <v>27.5845838241599</v>
+        <v>19.4024958347613</v>
       </c>
       <c r="F3" t="n">
-        <v>20.5794438970893</v>
+        <v>14.5824070165417</v>
       </c>
       <c r="G3" t="n">
-        <v>17.5695023820961</v>
+        <v>12.4998231868079</v>
       </c>
       <c r="H3" t="n">
-        <v>15.8910668090905</v>
+        <v>11.3327894756797</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.16182064925809</v>
+        <v>2.35995771279256</v>
       </c>
       <c r="B4" t="n">
-        <v>10.098851656554</v>
+        <v>7.84178962537052</v>
       </c>
       <c r="C4" t="n">
-        <v>51.9867738971835</v>
+        <v>41.9319541701378</v>
       </c>
       <c r="D4" t="n">
-        <v>78.7953623421774</v>
+        <v>64.6715614015018</v>
       </c>
       <c r="E4" t="n">
-        <v>34.4772066208296</v>
+        <v>28.5063808824308</v>
       </c>
       <c r="F4" t="n">
-        <v>25.6708654623626</v>
+        <v>21.298927906931</v>
       </c>
       <c r="G4" t="n">
-        <v>21.8860866673329</v>
+        <v>18.1918561072304</v>
       </c>
       <c r="H4" t="n">
-        <v>19.7760349477439</v>
+        <v>16.455150840621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.32638246145951</v>
+        <v>0.47079372312937</v>
       </c>
       <c r="B5" t="n">
-        <v>7.27786073474552</v>
+        <v>1.90520000584206</v>
       </c>
       <c r="C5" t="n">
-        <v>38.278392550303</v>
+        <v>14.4311673622782</v>
       </c>
       <c r="D5" t="n">
-        <v>58.7767450716868</v>
+        <v>25.3408659229536</v>
       </c>
       <c r="E5" t="n">
-        <v>25.9035508499976</v>
+        <v>11.775842815462</v>
       </c>
       <c r="F5" t="n">
-        <v>19.3657107072833</v>
+        <v>9.02313953034691</v>
       </c>
       <c r="G5" t="n">
-        <v>16.5513498426068</v>
+        <v>7.81272288036507</v>
       </c>
       <c r="H5" t="n">
-        <v>14.9800403848692</v>
+        <v>7.12486637449639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.09052298475823</v>
+        <v>1.29244065499247</v>
       </c>
       <c r="B6" t="n">
-        <v>9.46738070009971</v>
+        <v>4.28619027324861</v>
       </c>
       <c r="C6" t="n">
-        <v>49.5963568243467</v>
+        <v>26.62426416871</v>
       </c>
       <c r="D6" t="n">
-        <v>75.8659601597364</v>
+        <v>43.7204568413932</v>
       </c>
       <c r="E6" t="n">
-        <v>33.3383283980953</v>
+        <v>19.768535732106</v>
       </c>
       <c r="F6" t="n">
-        <v>24.8807016020683</v>
+        <v>14.949806698587</v>
       </c>
       <c r="G6" t="n">
-        <v>21.2431296082355</v>
+        <v>12.853245343102</v>
       </c>
       <c r="H6" t="n">
-        <v>19.2141084365625</v>
+        <v>11.6727015554969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.99182851017243</v>
+        <v>2.66846038638461</v>
       </c>
       <c r="B7" t="n">
-        <v>11.7901758595113</v>
+        <v>7.99020425005842</v>
       </c>
       <c r="C7" t="n">
-        <v>61.9576656223724</v>
+        <v>45.1888516144442</v>
       </c>
       <c r="D7" t="n">
-        <v>94.9406543340477</v>
+        <v>71.5440115073802</v>
       </c>
       <c r="E7" t="n">
-        <v>41.7300860172724</v>
+        <v>31.8630602857968</v>
       </c>
       <c r="F7" t="n">
-        <v>31.1429366026035</v>
+        <v>23.9238438504557</v>
       </c>
       <c r="G7" t="n">
-        <v>26.5880212179863</v>
+        <v>20.4896122735897</v>
       </c>
       <c r="H7" t="n">
-        <v>24.0463196791805</v>
+        <v>18.5647716267702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.464023729975</v>
+        <v>-2.20090240761837</v>
       </c>
       <c r="B8" t="n">
-        <v>5.62565069536527</v>
+        <v>-4.75469279939888</v>
       </c>
       <c r="C8" t="n">
-        <v>28.132298790237</v>
+        <v>-18.3455711872118</v>
       </c>
       <c r="D8" t="n">
-        <v>42.4101419559272</v>
+        <v>-23.0495952594504</v>
       </c>
       <c r="E8" t="n">
-        <v>18.6753585221629</v>
+        <v>-9.06978888476829</v>
       </c>
       <c r="F8" t="n">
-        <v>14.0077670406374</v>
+        <v>-6.34398906260675</v>
       </c>
       <c r="G8" t="n">
-        <v>12.0149069787077</v>
+        <v>-5.20090614412764</v>
       </c>
       <c r="H8" t="n">
-        <v>10.9069702580398</v>
+        <v>-4.57923798382386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.89449761759338</v>
+        <v>-1.60497971418288</v>
       </c>
       <c r="B9" t="n">
-        <v>7.39244140655623</v>
+        <v>-2.36724745340714</v>
       </c>
       <c r="C9" t="n">
-        <v>36.7073291295844</v>
+        <v>-7.2234978286576</v>
       </c>
       <c r="D9" t="n">
-        <v>54.8414280055159</v>
+        <v>-7.14856929098019</v>
       </c>
       <c r="E9" t="n">
-        <v>23.9592138833933</v>
+        <v>-2.31739934113683</v>
       </c>
       <c r="F9" t="n">
-        <v>17.8585649098834</v>
+        <v>-1.41135849102067</v>
       </c>
       <c r="G9" t="n">
-        <v>15.244066864537</v>
+        <v>-1.05315781181104</v>
       </c>
       <c r="H9" t="n">
-        <v>13.787269299057</v>
+        <v>-0.870547245723668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.54325128488879</v>
+        <v>-0.195954219818084</v>
       </c>
       <c r="B10" t="n">
-        <v>10.1191911124858</v>
+        <v>2.59614141083205</v>
       </c>
       <c r="C10" t="n">
-        <v>49.4971129909319</v>
+        <v>15.5298367260465</v>
       </c>
       <c r="D10" t="n">
-        <v>72.8978211307102</v>
+        <v>24.933130509437</v>
       </c>
       <c r="E10" t="n">
-        <v>31.5093124817146</v>
+        <v>11.186680271938</v>
       </c>
       <c r="F10" t="n">
-        <v>23.3134496618685</v>
+        <v>8.41541521552603</v>
       </c>
       <c r="G10" t="n">
-        <v>19.8007646342388</v>
+        <v>7.20320947290692</v>
       </c>
       <c r="H10" t="n">
-        <v>17.8470420493158</v>
+        <v>6.51732033494493</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.30268252495216</v>
+        <v>-0.909375776035349</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.59923291092103</v>
+        <v>-3.69094082923302</v>
       </c>
       <c r="C2" t="n">
-        <v>-39.4103899473409</v>
+        <v>-21.8426922149748</v>
       </c>
       <c r="D2" t="n">
-        <v>-60.2131911045539</v>
+        <v>-35.3414499261752</v>
       </c>
       <c r="E2" t="n">
-        <v>-26.5302954739651</v>
+        <v>-15.9741682738226</v>
       </c>
       <c r="F2" t="n">
-        <v>-19.8515001138302</v>
+        <v>-12.1077558428864</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.9827060034622</v>
+        <v>-10.4333215231447</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.3828029970155</v>
+        <v>-9.49245731218135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>51.7031006488411</v>
+        <v>28.8181533066014</v>
       </c>
       <c r="B3" t="n">
-        <v>168.73150478669</v>
+        <v>104.569014723107</v>
       </c>
       <c r="C3" t="n">
-        <v>870.625838316106</v>
+        <v>582.80614651742</v>
       </c>
       <c r="D3" t="n">
-        <v>1323.15704717552</v>
+        <v>916.786001820653</v>
       </c>
       <c r="E3" t="n">
-        <v>580.516569593325</v>
+        <v>408.324823580602</v>
       </c>
       <c r="F3" t="n">
-        <v>433.093653014009</v>
+        <v>306.886228613031</v>
       </c>
       <c r="G3" t="n">
-        <v>369.749542618912</v>
+        <v>263.058327186846</v>
       </c>
       <c r="H3" t="n">
-        <v>334.426926648494</v>
+        <v>238.498144916105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.354543981127</v>
+        <v>8.4749410596046</v>
       </c>
       <c r="B4" t="n">
-        <v>36.2664009168663</v>
+        <v>28.1609727651403</v>
       </c>
       <c r="C4" t="n">
-        <v>186.691838700903</v>
+        <v>150.583562654369</v>
       </c>
       <c r="D4" t="n">
-        <v>282.965261623245</v>
+        <v>232.244700038193</v>
       </c>
       <c r="E4" t="n">
-        <v>123.812512583366</v>
+        <v>102.370435068248</v>
       </c>
       <c r="F4" t="n">
-        <v>92.1876991961534</v>
+        <v>76.4874546969793</v>
       </c>
       <c r="G4" t="n">
-        <v>78.5960246345092</v>
+        <v>65.3295215578881</v>
       </c>
       <c r="H4" t="n">
-        <v>71.0185312500733</v>
+        <v>59.0927679530942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15.0367293980647</v>
+        <v>3.04300687194935</v>
       </c>
       <c r="B5" t="n">
-        <v>47.0409420111052</v>
+        <v>12.3143882881</v>
       </c>
       <c r="C5" t="n">
-        <v>247.414962976766</v>
+        <v>93.2768201788377</v>
       </c>
       <c r="D5" t="n">
-        <v>379.907442212881</v>
+        <v>163.792390077183</v>
       </c>
       <c r="E5" t="n">
-        <v>167.429341921732</v>
+        <v>76.1139515035534</v>
       </c>
       <c r="F5" t="n">
-        <v>125.171572744721</v>
+        <v>58.321668808355</v>
       </c>
       <c r="G5" t="n">
-        <v>106.980762139962</v>
+        <v>50.4980594379206</v>
       </c>
       <c r="H5" t="n">
-        <v>96.8244978506428</v>
+        <v>46.0520526807356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.99151668787714</v>
+        <v>-0.832841931673819</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.10073011840407</v>
+        <v>-2.76199837331386</v>
       </c>
       <c r="C6" t="n">
-        <v>-31.9596303799445</v>
+        <v>-17.1565352064785</v>
       </c>
       <c r="D6" t="n">
-        <v>-48.8876240186764</v>
+        <v>-28.1732314662137</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.4830427336004</v>
+        <v>-12.7387400124657</v>
       </c>
       <c r="F6" t="n">
-        <v>-16.0329926976702</v>
+        <v>-9.63357647479285</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.6889605177448</v>
+        <v>-8.28256341092034</v>
       </c>
       <c r="H6" t="n">
-        <v>-12.3814699915874</v>
+        <v>-7.52182722957493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.48516279158218</v>
+        <v>-0.992802688434688</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.38654377264323</v>
+        <v>-2.97276148489053</v>
       </c>
       <c r="C7" t="n">
-        <v>-23.0513959708311</v>
+        <v>-16.8125461404658</v>
       </c>
       <c r="D7" t="n">
-        <v>-35.3227416623922</v>
+        <v>-26.6180031483112</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.5257098055296</v>
+        <v>-11.8546754806261</v>
       </c>
       <c r="F7" t="n">
-        <v>-11.5867529241108</v>
+        <v>-8.90088405044838</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.89209323850561</v>
+        <v>-7.62317561617056</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.94645127439767</v>
+        <v>-6.90703720964922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.06063136277612</v>
+        <v>7.60776995779518</v>
       </c>
       <c r="B8" t="n">
-        <v>-19.4459582601677</v>
+        <v>16.4353534771016</v>
       </c>
       <c r="C8" t="n">
-        <v>-97.2437745713955</v>
+        <v>63.4143907760508</v>
       </c>
       <c r="D8" t="n">
-        <v>-146.597415115408</v>
+        <v>79.6745997220021</v>
       </c>
       <c r="E8" t="n">
-        <v>-64.5543532617195</v>
+        <v>31.3511708480303</v>
       </c>
       <c r="F8" t="n">
-        <v>-48.4200793722939</v>
+        <v>21.9290093172771</v>
       </c>
       <c r="G8" t="n">
-        <v>-41.5314409407314</v>
+        <v>17.9777610218633</v>
       </c>
       <c r="H8" t="n">
-        <v>-37.7016810797495</v>
+        <v>15.8288659425968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-9.64498328240233</v>
+        <v>8.17103297894525</v>
       </c>
       <c r="B9" t="n">
-        <v>-37.6352934520696</v>
+        <v>12.0517766300627</v>
       </c>
       <c r="C9" t="n">
-        <v>-186.878870951671</v>
+        <v>36.7751931440146</v>
       </c>
       <c r="D9" t="n">
-        <v>-279.200486389738</v>
+        <v>36.393728165351</v>
       </c>
       <c r="E9" t="n">
-        <v>-121.977570844551</v>
+        <v>11.7979973668735</v>
       </c>
       <c r="F9" t="n">
-        <v>-90.9188580676757</v>
+        <v>7.18529752951771</v>
       </c>
       <c r="G9" t="n">
-        <v>-77.6083161566897</v>
+        <v>5.36167973731864</v>
       </c>
       <c r="H9" t="n">
-        <v>-70.1916859986913</v>
+        <v>4.43200010048696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.94644419650245</v>
+        <v>-0.227019711812869</v>
       </c>
       <c r="B10" t="n">
-        <v>11.7234313824349</v>
+        <v>3.00771922880609</v>
       </c>
       <c r="C10" t="n">
-        <v>57.344109951815</v>
+        <v>17.9918506543058</v>
       </c>
       <c r="D10" t="n">
-        <v>84.4546361912671</v>
+        <v>28.8858903273419</v>
       </c>
       <c r="E10" t="n">
-        <v>36.5046236088268</v>
+        <v>12.9601543352102</v>
       </c>
       <c r="F10" t="n">
-        <v>27.0094342878385</v>
+        <v>9.74954833219691</v>
       </c>
       <c r="G10" t="n">
-        <v>22.9398677155943</v>
+        <v>8.34516623416007</v>
       </c>
       <c r="H10" t="n">
-        <v>20.6764128198372</v>
+        <v>7.55054004759331</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.46215154084897</v>
+        <v>2.94695416099269</v>
       </c>
       <c r="B2" t="n">
-        <v>24.626333400727</v>
+        <v>11.9609887588024</v>
       </c>
       <c r="C2" t="n">
-        <v>127.71465405424</v>
+        <v>70.7841735028803</v>
       </c>
       <c r="D2" t="n">
-        <v>195.128921121949</v>
+        <v>114.528708219525</v>
       </c>
       <c r="E2" t="n">
-        <v>85.9749805303014</v>
+        <v>51.76643462857</v>
       </c>
       <c r="F2" t="n">
-        <v>64.3314484551704</v>
+        <v>39.2368066114956</v>
       </c>
       <c r="G2" t="n">
-        <v>55.0347363990846</v>
+        <v>33.8105776356317</v>
       </c>
       <c r="H2" t="n">
-        <v>49.8500361395413</v>
+        <v>30.7615809782588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.75052058473326</v>
+        <v>3.2052117131069</v>
       </c>
       <c r="B3" t="n">
-        <v>18.7666499570105</v>
+        <v>11.6303715665838</v>
       </c>
       <c r="C3" t="n">
-        <v>96.8327187733109</v>
+        <v>64.8208463399498</v>
       </c>
       <c r="D3" t="n">
-        <v>147.164130219108</v>
+        <v>101.966742982621</v>
       </c>
       <c r="E3" t="n">
-        <v>64.5661950895005</v>
+        <v>45.4146902949903</v>
       </c>
       <c r="F3" t="n">
-        <v>48.1695282395062</v>
+        <v>34.1324901730037</v>
       </c>
       <c r="G3" t="n">
-        <v>41.1242716460453</v>
+        <v>29.2578647409874</v>
       </c>
       <c r="H3" t="n">
-        <v>37.1956207973448</v>
+        <v>26.5262329444356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.44157750810047</v>
+        <v>4.06155004807548</v>
       </c>
       <c r="B4" t="n">
-        <v>17.3803925421394</v>
+        <v>13.4959287012958</v>
       </c>
       <c r="C4" t="n">
-        <v>89.4706218153133</v>
+        <v>72.1660093960302</v>
       </c>
       <c r="D4" t="n">
-        <v>135.608916199731</v>
+        <v>111.301478791571</v>
       </c>
       <c r="E4" t="n">
-        <v>59.3361904110726</v>
+        <v>49.0602403661256</v>
       </c>
       <c r="F4" t="n">
-        <v>44.180242844022</v>
+        <v>36.6560219259131</v>
       </c>
       <c r="G4" t="n">
-        <v>37.6665377832994</v>
+        <v>31.3086686453685</v>
       </c>
       <c r="H4" t="n">
-        <v>34.0350826022668</v>
+        <v>28.3197526487577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.83341042372138</v>
+        <v>1.18051655625124</v>
       </c>
       <c r="B5" t="n">
-        <v>18.2492558191924</v>
+        <v>4.77729425727384</v>
       </c>
       <c r="C5" t="n">
-        <v>95.983174652266</v>
+        <v>36.1861918718074</v>
       </c>
       <c r="D5" t="n">
-        <v>147.382850005878</v>
+        <v>63.5422910334111</v>
       </c>
       <c r="E5" t="n">
-        <v>64.9532250363396</v>
+        <v>29.5279582638893</v>
       </c>
       <c r="F5" t="n">
-        <v>48.5595728880133</v>
+        <v>22.6255472017253</v>
       </c>
       <c r="G5" t="n">
-        <v>41.5025552754333</v>
+        <v>19.5904241211377</v>
       </c>
       <c r="H5" t="n">
-        <v>37.562492486313</v>
+        <v>17.8656220398662</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.6819034349651</v>
+        <v>3.21253210412604</v>
       </c>
       <c r="B6" t="n">
-        <v>23.5324262847726</v>
+        <v>10.653892543549</v>
       </c>
       <c r="C6" t="n">
-        <v>123.278301352128</v>
+        <v>66.1781282260975</v>
       </c>
       <c r="D6" t="n">
-        <v>188.574873192084</v>
+        <v>108.672975171035</v>
       </c>
       <c r="E6" t="n">
-        <v>82.8668224440849</v>
+        <v>49.1373088935546</v>
       </c>
       <c r="F6" t="n">
-        <v>61.8442729738257</v>
+        <v>37.1597208615886</v>
       </c>
       <c r="G6" t="n">
-        <v>52.8026069088367</v>
+        <v>31.9484404544394</v>
       </c>
       <c r="H6" t="n">
-        <v>47.7592065571285</v>
+        <v>29.0140428065799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.25506908754232</v>
+        <v>4.84987378872995</v>
       </c>
       <c r="B7" t="n">
-        <v>21.4284106135945</v>
+        <v>14.5220376351398</v>
       </c>
       <c r="C7" t="n">
-        <v>112.606827534718</v>
+        <v>82.1298409022409</v>
       </c>
       <c r="D7" t="n">
-        <v>172.552754872788</v>
+        <v>130.029820911206</v>
       </c>
       <c r="E7" t="n">
-        <v>75.84360307886</v>
+        <v>57.9104796523426</v>
       </c>
       <c r="F7" t="n">
-        <v>56.6016691511327</v>
+        <v>43.4811113584469</v>
       </c>
       <c r="G7" t="n">
-        <v>48.3232008454188</v>
+        <v>37.2394636300213</v>
       </c>
       <c r="H7" t="n">
-        <v>43.7037087462574</v>
+        <v>33.7411039586079</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.97352382901232</v>
+        <v>-8.98014335974149</v>
       </c>
       <c r="B8" t="n">
-        <v>22.9538345550164</v>
+        <v>-19.4001436966651</v>
       </c>
       <c r="C8" t="n">
-        <v>114.785678502114</v>
+        <v>-74.8537775719817</v>
       </c>
       <c r="D8" t="n">
-        <v>173.042272730001</v>
+        <v>-94.0471822364297</v>
       </c>
       <c r="E8" t="n">
-        <v>76.199379056099</v>
+        <v>-37.0066406151762</v>
       </c>
       <c r="F8" t="n">
-        <v>57.1546270017971</v>
+        <v>-25.8848057313403</v>
       </c>
       <c r="G8" t="n">
-        <v>49.0233400396472</v>
+        <v>-21.2207877156019</v>
       </c>
       <c r="H8" t="n">
-        <v>44.5027258812548</v>
+        <v>-18.6842512556523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.70890984807877</v>
+        <v>-4.83647190219475</v>
       </c>
       <c r="B9" t="n">
-        <v>22.2765028339519</v>
+        <v>-7.13350187094085</v>
       </c>
       <c r="C9" t="n">
-        <v>110.614460962352</v>
+        <v>-21.7674055161836</v>
       </c>
       <c r="D9" t="n">
-        <v>165.260048635538</v>
+        <v>-21.5416146454661</v>
       </c>
       <c r="E9" t="n">
-        <v>72.1990837153363</v>
+        <v>-6.98328876092935</v>
       </c>
       <c r="F9" t="n">
-        <v>53.8152891509572</v>
+        <v>-4.25301056793771</v>
       </c>
       <c r="G9" t="n">
-        <v>45.9367183360614</v>
+        <v>-3.1736028314814</v>
       </c>
       <c r="H9" t="n">
-        <v>41.5467809241627</v>
+        <v>-2.62332118983767</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.03702631677984</v>
+        <v>-0.388096358378882</v>
       </c>
       <c r="B10" t="n">
-        <v>20.0415241077307</v>
+        <v>5.14177764743165</v>
       </c>
       <c r="C10" t="n">
-        <v>98.0313122109958</v>
+        <v>30.7575569701564</v>
       </c>
       <c r="D10" t="n">
-        <v>144.377492563561</v>
+        <v>49.3812134420026</v>
       </c>
       <c r="E10" t="n">
-        <v>62.4056447497189</v>
+        <v>22.1557355586346</v>
       </c>
       <c r="F10" t="n">
-        <v>46.1733609177705</v>
+        <v>16.6671174645991</v>
       </c>
       <c r="G10" t="n">
-        <v>39.216326419505</v>
+        <v>14.2662881548083</v>
       </c>
       <c r="H10" t="n">
-        <v>35.346888847836</v>
+        <v>12.9078531236985</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.97749295432703</v>
+        <v>-1.17587202605673</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.82621885795027</v>
+        <v>-4.77258597083747</v>
       </c>
       <c r="C2" t="n">
-        <v>-50.9597641550375</v>
+        <v>-28.2437815325725</v>
       </c>
       <c r="D2" t="n">
-        <v>-77.858910348521</v>
+        <v>-45.6984047998863</v>
       </c>
       <c r="E2" t="n">
-        <v>-34.3051058901776</v>
+        <v>-20.6554629095165</v>
       </c>
       <c r="F2" t="n">
-        <v>-25.6690625308756</v>
+        <v>-15.6559826742313</v>
       </c>
       <c r="G2" t="n">
-        <v>-21.9595567008381</v>
+        <v>-13.4908486032122</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.8907956459894</v>
+        <v>-12.2742603289862</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.93469597747436</v>
+        <v>2.75048930171876</v>
       </c>
       <c r="B3" t="n">
-        <v>16.1042310324717</v>
+        <v>9.98037428794206</v>
       </c>
       <c r="C3" t="n">
-        <v>83.0950903970598</v>
+        <v>55.6247325745503</v>
       </c>
       <c r="D3" t="n">
-        <v>126.285999801256</v>
+        <v>87.500752152484</v>
       </c>
       <c r="E3" t="n">
-        <v>55.4062086195909</v>
+        <v>38.9717219884237</v>
       </c>
       <c r="F3" t="n">
-        <v>41.3357319111927</v>
+        <v>29.2901241680743</v>
       </c>
       <c r="G3" t="n">
-        <v>35.2899837289629</v>
+        <v>25.1070603642638</v>
       </c>
       <c r="H3" t="n">
-        <v>31.9186893818993</v>
+        <v>22.7629643403018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.52785927967862</v>
+        <v>3.37955805052518</v>
       </c>
       <c r="B4" t="n">
-        <v>14.461977531191</v>
+        <v>11.2297703960068</v>
       </c>
       <c r="C4" t="n">
-        <v>74.4472323773804</v>
+        <v>60.0483104090258</v>
       </c>
       <c r="D4" t="n">
-        <v>112.838251170377</v>
+        <v>92.6123780903911</v>
       </c>
       <c r="E4" t="n">
-        <v>49.372800437669</v>
+        <v>40.8223285020466</v>
       </c>
       <c r="F4" t="n">
-        <v>36.7617519445368</v>
+        <v>30.5009546930603</v>
       </c>
       <c r="G4" t="n">
-        <v>31.3417905711339</v>
+        <v>26.0514980535121</v>
       </c>
       <c r="H4" t="n">
-        <v>28.3201083446658</v>
+        <v>23.564463547197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.40522344220065</v>
+        <v>0.891492082634289</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7813120795532</v>
+        <v>3.60767494892083</v>
       </c>
       <c r="C5" t="n">
-        <v>72.4837274119419</v>
+        <v>27.3267692719559</v>
       </c>
       <c r="D5" t="n">
-        <v>111.299280980482</v>
+        <v>47.9853069986711</v>
       </c>
       <c r="E5" t="n">
-        <v>49.0508036967645</v>
+        <v>22.2986631311681</v>
       </c>
       <c r="F5" t="n">
-        <v>36.6707900338446</v>
+        <v>17.0861612137473</v>
       </c>
       <c r="G5" t="n">
-        <v>31.3415337050694</v>
+        <v>14.7941237308028</v>
       </c>
       <c r="H5" t="n">
-        <v>28.3661118331925</v>
+        <v>13.4916029051335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.95353795369507</v>
+        <v>-0.816959422362566</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.98438762984053</v>
+        <v>-2.70932635571544</v>
       </c>
       <c r="C6" t="n">
-        <v>-31.3501520290244</v>
+        <v>-16.8293556784039</v>
       </c>
       <c r="D6" t="n">
-        <v>-47.9553244860133</v>
+        <v>-27.6359607140183</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.0733555969733</v>
+        <v>-12.4958089721722</v>
       </c>
       <c r="F6" t="n">
-        <v>-15.7272394134951</v>
+        <v>-9.44986169982461</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.4279085286266</v>
+        <v>-8.12461280169656</v>
       </c>
       <c r="H6" t="n">
-        <v>-12.1453521822533</v>
+        <v>-7.37838405450416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.70492399064723</v>
+        <v>-1.13970881245156</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.03562555996733</v>
+        <v>-3.41264432612302</v>
       </c>
       <c r="C7" t="n">
-        <v>-26.4623368100347</v>
+        <v>-19.3003173936286</v>
       </c>
       <c r="D7" t="n">
-        <v>-40.5494872461021</v>
+        <v>-30.5566988399522</v>
       </c>
       <c r="E7" t="n">
-        <v>-17.8230664471974</v>
+        <v>-13.6088250680757</v>
       </c>
       <c r="F7" t="n">
-        <v>-13.3012577112665</v>
+        <v>-10.2179578168748</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.3558373369161</v>
+        <v>-8.75118543676968</v>
       </c>
       <c r="H7" t="n">
-        <v>-10.2702676739078</v>
+        <v>-7.92907922940814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.59767682836671</v>
+        <v>-3.90515062612024</v>
       </c>
       <c r="B8" t="n">
-        <v>9.98182075647435</v>
+        <v>-8.43644475025788</v>
       </c>
       <c r="C8" t="n">
-        <v>49.9162815464307</v>
+        <v>-32.5512928516438</v>
       </c>
       <c r="D8" t="n">
-        <v>75.2500391838159</v>
+        <v>-40.8978340192122</v>
       </c>
       <c r="E8" t="n">
-        <v>33.13644792854</v>
+        <v>-16.0928951776915</v>
       </c>
       <c r="F8" t="n">
-        <v>24.8545505879498</v>
+        <v>-11.2563977276699</v>
       </c>
       <c r="G8" t="n">
-        <v>21.3185379543701</v>
+        <v>-9.22817922995083</v>
       </c>
       <c r="H8" t="n">
-        <v>19.3526807844015</v>
+        <v>-8.12512813734179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.22798372605965</v>
+        <v>-1.88750233869273</v>
       </c>
       <c r="B9" t="n">
-        <v>8.69372386468304</v>
+        <v>-2.78395113974709</v>
       </c>
       <c r="C9" t="n">
-        <v>43.1688755733143</v>
+        <v>-8.49504135450993</v>
       </c>
       <c r="D9" t="n">
-        <v>64.4950977902923</v>
+        <v>-8.4069232375947</v>
       </c>
       <c r="E9" t="n">
-        <v>28.1767251252568</v>
+        <v>-2.72532832497991</v>
       </c>
       <c r="F9" t="n">
-        <v>21.0021863424375</v>
+        <v>-1.65979820741324</v>
       </c>
       <c r="G9" t="n">
-        <v>17.927461390159</v>
+        <v>-1.23854389886659</v>
       </c>
       <c r="H9" t="n">
-        <v>16.2142255233459</v>
+        <v>-1.02378861721782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.97449131661631</v>
+        <v>-0.152132000398085</v>
       </c>
       <c r="B10" t="n">
-        <v>7.85618593864505</v>
+        <v>2.01555335992687</v>
       </c>
       <c r="C10" t="n">
-        <v>38.4278267660229</v>
+        <v>12.0568218902478</v>
       </c>
       <c r="D10" t="n">
-        <v>56.5953178429754</v>
+        <v>19.3572101897503</v>
       </c>
       <c r="E10" t="n">
-        <v>24.4627277915308</v>
+        <v>8.68494717370033</v>
       </c>
       <c r="F10" t="n">
-        <v>18.0997466476238</v>
+        <v>6.53343394241264</v>
       </c>
       <c r="G10" t="n">
-        <v>15.3726208908128</v>
+        <v>5.59231981539922</v>
       </c>
       <c r="H10" t="n">
-        <v>13.855819030954</v>
+        <v>5.05981948595316</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.14139444468626</v>
+        <v>2.42536054300051</v>
       </c>
       <c r="B2" t="n">
-        <v>20.2676166936982</v>
+        <v>9.84396383725904</v>
       </c>
       <c r="C2" t="n">
-        <v>105.109908666435</v>
+        <v>58.255789572566</v>
       </c>
       <c r="D2" t="n">
-        <v>160.592245495945</v>
+        <v>94.2577979777214</v>
       </c>
       <c r="E2" t="n">
-        <v>70.7579127709233</v>
+        <v>42.6040790392397</v>
       </c>
       <c r="F2" t="n">
-        <v>52.9451590467505</v>
+        <v>32.2921217603218</v>
       </c>
       <c r="G2" t="n">
-        <v>45.2939105479031</v>
+        <v>27.8263035166769</v>
       </c>
       <c r="H2" t="n">
-        <v>41.0268718530952</v>
+        <v>25.3169614012089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.03196537225231</v>
+        <v>3.91946041148737</v>
       </c>
       <c r="B3" t="n">
-        <v>22.9486062533587</v>
+        <v>14.2220810998869</v>
       </c>
       <c r="C3" t="n">
-        <v>118.410901288262</v>
+        <v>79.2655099909982</v>
       </c>
       <c r="D3" t="n">
-        <v>179.958153786245</v>
+        <v>124.68899036354</v>
       </c>
       <c r="E3" t="n">
-        <v>78.9541123099057</v>
+        <v>55.5348902486796</v>
       </c>
       <c r="F3" t="n">
-        <v>58.9036156964995</v>
+        <v>41.7385670442631</v>
       </c>
       <c r="G3" t="n">
-        <v>50.2883956179251</v>
+        <v>35.7776811147975</v>
       </c>
       <c r="H3" t="n">
-        <v>45.4842850472969</v>
+        <v>32.4373330680325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.1349163034399</v>
+        <v>4.57905259459832</v>
       </c>
       <c r="B4" t="n">
-        <v>19.5949158875764</v>
+        <v>15.2155129457201</v>
       </c>
       <c r="C4" t="n">
-        <v>100.870524335374</v>
+        <v>81.3610440977529</v>
       </c>
       <c r="D4" t="n">
-        <v>152.887531170342</v>
+        <v>125.482960744179</v>
       </c>
       <c r="E4" t="n">
-        <v>66.8965132620109</v>
+        <v>55.311252669796</v>
       </c>
       <c r="F4" t="n">
-        <v>49.8094700866145</v>
+        <v>41.326550287627</v>
       </c>
       <c r="G4" t="n">
-        <v>42.4658210595926</v>
+        <v>35.2978637951108</v>
       </c>
       <c r="H4" t="n">
-        <v>38.3716638851035</v>
+        <v>31.9281149585053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.76475583956739</v>
+        <v>1.57136600342449</v>
       </c>
       <c r="B5" t="n">
-        <v>24.291281668372</v>
+        <v>6.35897713122586</v>
       </c>
       <c r="C5" t="n">
-        <v>127.761611432434</v>
+        <v>48.1668396767933</v>
       </c>
       <c r="D5" t="n">
-        <v>196.178866582333</v>
+        <v>84.580089437015</v>
       </c>
       <c r="E5" t="n">
-        <v>86.4581602811189</v>
+        <v>39.3041753804408</v>
       </c>
       <c r="F5" t="n">
-        <v>64.6368418748362</v>
+        <v>30.1164905256109</v>
       </c>
       <c r="G5" t="n">
-        <v>55.243362805648</v>
+        <v>26.0764885453003</v>
       </c>
       <c r="H5" t="n">
-        <v>49.9988105921306</v>
+        <v>23.7806331091407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.13298307660264</v>
+        <v>2.9829764622494</v>
       </c>
       <c r="B6" t="n">
-        <v>21.8508862890236</v>
+        <v>9.89260485457059</v>
       </c>
       <c r="C6" t="n">
-        <v>114.469290677962</v>
+        <v>61.4492843699926</v>
       </c>
       <c r="D6" t="n">
-        <v>175.10001141504</v>
+        <v>100.907606993705</v>
       </c>
       <c r="E6" t="n">
-        <v>76.9454663300098</v>
+        <v>45.6261388514986</v>
       </c>
       <c r="F6" t="n">
-        <v>57.425110357313</v>
+        <v>34.5044248838822</v>
       </c>
       <c r="G6" t="n">
-        <v>49.0295282503698</v>
+        <v>29.6655232670728</v>
       </c>
       <c r="H6" t="n">
-        <v>44.3465106022274</v>
+        <v>26.9408068033205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.50901098402725</v>
+        <v>5.01962904988073</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1784477482123</v>
+        <v>15.0303379329585</v>
       </c>
       <c r="C7" t="n">
-        <v>116.548291219801</v>
+        <v>85.0045492344514</v>
       </c>
       <c r="D7" t="n">
-        <v>178.592445644491</v>
+        <v>134.581124134284</v>
       </c>
       <c r="E7" t="n">
-        <v>78.4982805422583</v>
+        <v>59.9374620079648</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5828405273133</v>
+        <v>45.0030370281275</v>
       </c>
       <c r="G7" t="n">
-        <v>50.014609310154</v>
+        <v>38.5429191731983</v>
       </c>
       <c r="H7" t="n">
-        <v>45.233425768733</v>
+        <v>34.92210993186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.47406614722482</v>
+        <v>-3.71932368891809</v>
       </c>
       <c r="B8" t="n">
-        <v>9.50683493480852</v>
+        <v>-8.03499578223864</v>
       </c>
       <c r="C8" t="n">
-        <v>47.5410108835653</v>
+        <v>-31.0023367084077</v>
       </c>
       <c r="D8" t="n">
-        <v>71.6692594278854</v>
+        <v>-38.9517069778737</v>
       </c>
       <c r="E8" t="n">
-        <v>31.5596471293255</v>
+        <v>-15.3271133403448</v>
       </c>
       <c r="F8" t="n">
-        <v>23.6718446046256</v>
+        <v>-10.720761048339</v>
       </c>
       <c r="G8" t="n">
-        <v>20.3040934442938</v>
+        <v>-8.78905550683903</v>
       </c>
       <c r="H8" t="n">
-        <v>18.4317817612595</v>
+        <v>-7.73849319782415</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.69600636843616</v>
+        <v>-2.28400156878772</v>
       </c>
       <c r="B9" t="n">
-        <v>10.5199758106238</v>
+        <v>-3.36876338654743</v>
       </c>
       <c r="C9" t="n">
-        <v>52.2371694651992</v>
+        <v>-10.2795569482872</v>
       </c>
       <c r="D9" t="n">
-        <v>78.0432964306518</v>
+        <v>-10.1729282500614</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0956845828119</v>
+        <v>-3.29782593754394</v>
       </c>
       <c r="F9" t="n">
-        <v>25.4140223144424</v>
+        <v>-2.00846464234237</v>
       </c>
       <c r="G9" t="n">
-        <v>21.6934035524764</v>
+        <v>-1.49871931283698</v>
       </c>
       <c r="H9" t="n">
-        <v>19.6202758390483</v>
+        <v>-1.23885134333239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.31129931351193</v>
+        <v>-0.178082620634598</v>
       </c>
       <c r="B10" t="n">
-        <v>9.19629122397445</v>
+        <v>2.35936570494976</v>
       </c>
       <c r="C10" t="n">
-        <v>44.9828312115709</v>
+        <v>14.1134700991346</v>
       </c>
       <c r="D10" t="n">
-        <v>66.2493261822115</v>
+        <v>22.6591559287013</v>
       </c>
       <c r="E10" t="n">
-        <v>28.6355708305105</v>
+        <v>10.1664222433051</v>
       </c>
       <c r="F10" t="n">
-        <v>21.1871947216682</v>
+        <v>7.64790468253462</v>
       </c>
       <c r="G10" t="n">
-        <v>17.9948768641352</v>
+        <v>6.5462556565819</v>
       </c>
       <c r="H10" t="n">
-        <v>16.2193395052609</v>
+        <v>5.922921618323</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.47079372312937</v>
+        <v>0.993862258600338</v>
       </c>
       <c r="B5" t="n">
-        <v>1.90520000584206</v>
+        <v>3.31712880519028</v>
       </c>
       <c r="C5" t="n">
-        <v>14.4311673622782</v>
+        <v>20.5059116393374</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3408659229536</v>
+        <v>33.7400604774924</v>
       </c>
       <c r="E5" t="n">
-        <v>11.775842815462</v>
+        <v>15.3114159921535</v>
       </c>
       <c r="F5" t="n">
-        <v>9.02313953034691</v>
+        <v>11.6090889640618</v>
       </c>
       <c r="G5" t="n">
-        <v>7.81272288036507</v>
+        <v>9.99719907358488</v>
       </c>
       <c r="H5" t="n">
-        <v>7.12486637449639</v>
+        <v>9.08844571651995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.29244065499247</v>
+        <v>1.79687394338858</v>
       </c>
       <c r="B6" t="n">
-        <v>4.28619027324861</v>
+        <v>5.63033763212225</v>
       </c>
       <c r="C6" t="n">
-        <v>26.62426416871</v>
+        <v>32.4454008264722</v>
       </c>
       <c r="D6" t="n">
-        <v>43.7204568413932</v>
+        <v>51.7810218740614</v>
       </c>
       <c r="E6" t="n">
-        <v>19.768535732106</v>
+        <v>23.1624662984017</v>
       </c>
       <c r="F6" t="n">
-        <v>14.949806698587</v>
+        <v>17.4323104574417</v>
       </c>
       <c r="G6" t="n">
-        <v>12.853245343102</v>
+        <v>14.9503793271349</v>
       </c>
       <c r="H6" t="n">
-        <v>11.6727015554969</v>
+        <v>13.5577868818642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.66846038638461</v>
+        <v>3.03947963495373</v>
       </c>
       <c r="B7" t="n">
-        <v>7.99020425005842</v>
+        <v>8.9595480966263</v>
       </c>
       <c r="C7" t="n">
-        <v>45.1888516144442</v>
+        <v>49.4102799312396</v>
       </c>
       <c r="D7" t="n">
-        <v>71.5440115073802</v>
+        <v>77.3996936124951</v>
       </c>
       <c r="E7" t="n">
-        <v>31.8630602857968</v>
+        <v>34.3295165777774</v>
       </c>
       <c r="F7" t="n">
-        <v>23.9238438504557</v>
+        <v>25.7281188995847</v>
       </c>
       <c r="G7" t="n">
-        <v>20.4896122735897</v>
+        <v>22.0138612447849</v>
       </c>
       <c r="H7" t="n">
-        <v>18.5647716267702</v>
+        <v>19.9349249903569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.20090240761837</v>
+        <v>0.430924364904819</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.75469279939888</v>
+        <v>3.16841873450944</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.3455711872118</v>
+        <v>17.0249311277934</v>
       </c>
       <c r="D8" t="n">
-        <v>-23.0495952594504</v>
+        <v>26.4371426426698</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.06978888476829</v>
+        <v>11.8287049227036</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.34398906260675</v>
+        <v>8.95834789960552</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.20090614412764</v>
+        <v>7.73209733961239</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.57923798382386</v>
+        <v>7.04905334272148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.60497971418288</v>
+        <v>0.912755664561964</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.36724745340714</v>
+        <v>5.04900430325588</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.2234978286576</v>
+        <v>26.0750037080811</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.14856929098019</v>
+        <v>39.5752558961682</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.31739934113683</v>
+        <v>17.4325581069444</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.41135849102067</v>
+        <v>13.0553342456125</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.05315781181104</v>
+        <v>11.1760056646866</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.870547245723668</v>
+        <v>10.1262958553556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.195954219818084</v>
+        <v>1.77528812349435</v>
       </c>
       <c r="B10" t="n">
-        <v>2.59614141083205</v>
+        <v>8.26816081245422</v>
       </c>
       <c r="C10" t="n">
-        <v>15.5298367260465</v>
+        <v>41.1208531343031</v>
       </c>
       <c r="D10" t="n">
-        <v>24.933130509437</v>
+        <v>60.9574073359491</v>
       </c>
       <c r="E10" t="n">
-        <v>11.186680271938</v>
+        <v>26.4306507164001</v>
       </c>
       <c r="F10" t="n">
-        <v>8.41541521552603</v>
+        <v>19.5864210083023</v>
       </c>
       <c r="G10" t="n">
-        <v>7.20320947290692</v>
+        <v>16.6487585357671</v>
       </c>
       <c r="H10" t="n">
-        <v>6.51732033494493</v>
+        <v>15.0125375354992</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.04300687194935</v>
+        <v>6.42389550690945</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3143882881</v>
+        <v>21.4404849797911</v>
       </c>
       <c r="C5" t="n">
-        <v>93.2768201788377</v>
+        <v>132.541338103063</v>
       </c>
       <c r="D5" t="n">
-        <v>163.792390077183</v>
+        <v>218.081148598455</v>
       </c>
       <c r="E5" t="n">
-        <v>76.1139515035534</v>
+        <v>98.9663663604008</v>
       </c>
       <c r="F5" t="n">
-        <v>58.321668808355</v>
+        <v>75.0361267773406</v>
       </c>
       <c r="G5" t="n">
-        <v>50.4980594379206</v>
+        <v>64.6175681335601</v>
       </c>
       <c r="H5" t="n">
-        <v>46.0520526807356</v>
+        <v>58.7437797319766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.832841931673819</v>
+        <v>-1.15789607840432</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.76199837331386</v>
+        <v>-3.62815983186462</v>
       </c>
       <c r="C6" t="n">
-        <v>-17.1565352064785</v>
+        <v>-20.9076449227046</v>
       </c>
       <c r="D6" t="n">
-        <v>-28.1732314662137</v>
+        <v>-33.3674169990333</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.7387400124657</v>
+        <v>-14.9257709433498</v>
       </c>
       <c r="F6" t="n">
-        <v>-9.63357647479285</v>
+        <v>-11.2332887849291</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.28256341092034</v>
+        <v>-9.63394547360467</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.52182722957493</v>
+        <v>-8.73656625725653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.992802688434688</v>
+        <v>-1.13084067817584</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.97276148489053</v>
+        <v>-3.33340659013568</v>
       </c>
       <c r="C7" t="n">
-        <v>-16.8125461404658</v>
+        <v>-18.3831317123307</v>
       </c>
       <c r="D7" t="n">
-        <v>-26.6180031483112</v>
+        <v>-28.7966140680159</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.8546754806261</v>
+        <v>-12.7723223942093</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.90088405044838</v>
+        <v>-9.5721659359096</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.62317561617056</v>
+        <v>-8.1902735892818</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.90703720964922</v>
+        <v>-7.41680379635871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.60776995779518</v>
+        <v>-1.48955874920071</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4353534771016</v>
+        <v>-10.9521443471</v>
       </c>
       <c r="C8" t="n">
-        <v>63.4143907760508</v>
+        <v>-58.8493879234361</v>
       </c>
       <c r="D8" t="n">
-        <v>79.6745997220021</v>
+        <v>-91.3841971686933</v>
       </c>
       <c r="E8" t="n">
-        <v>31.3511708480303</v>
+        <v>-40.8878038567587</v>
       </c>
       <c r="F8" t="n">
-        <v>21.9290093172771</v>
+        <v>-30.9659573210453</v>
       </c>
       <c r="G8" t="n">
-        <v>17.9777610218633</v>
+        <v>-26.7272268172515</v>
       </c>
       <c r="H8" t="n">
-        <v>15.8288659425968</v>
+        <v>-24.3661763765724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.17103297894525</v>
+        <v>-4.646885297645</v>
       </c>
       <c r="B9" t="n">
-        <v>12.0517766300627</v>
+        <v>-25.7047365198283</v>
       </c>
       <c r="C9" t="n">
-        <v>36.7751931440146</v>
+        <v>-132.749163956457</v>
       </c>
       <c r="D9" t="n">
-        <v>36.393728165351</v>
+        <v>-201.479631312612</v>
       </c>
       <c r="E9" t="n">
-        <v>11.7979973668735</v>
+        <v>-88.7500358668032</v>
       </c>
       <c r="F9" t="n">
-        <v>7.18529752951771</v>
+        <v>-66.4653675865075</v>
       </c>
       <c r="G9" t="n">
-        <v>5.36167973731864</v>
+        <v>-56.8976106377304</v>
       </c>
       <c r="H9" t="n">
-        <v>4.43200010048696</v>
+        <v>-51.5534848555968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.227019711812869</v>
+        <v>2.05673242737333</v>
       </c>
       <c r="B10" t="n">
-        <v>3.00771922880609</v>
+        <v>9.57894903517962</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9918506543058</v>
+        <v>47.6399244513094</v>
       </c>
       <c r="D10" t="n">
-        <v>28.8858903273419</v>
+        <v>70.6212556132445</v>
       </c>
       <c r="E10" t="n">
-        <v>12.9601543352102</v>
+        <v>30.6208190578093</v>
       </c>
       <c r="F10" t="n">
-        <v>9.74954833219691</v>
+        <v>22.6915432435099</v>
       </c>
       <c r="G10" t="n">
-        <v>8.34516623416007</v>
+        <v>19.2881601036237</v>
       </c>
       <c r="H10" t="n">
-        <v>7.55054004759331</v>
+        <v>17.3925417276183</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.18051655625124</v>
+        <v>2.492112348296</v>
       </c>
       <c r="B5" t="n">
-        <v>4.77729425727384</v>
+        <v>8.31770960690773</v>
       </c>
       <c r="C5" t="n">
-        <v>36.1861918718074</v>
+        <v>51.4186298626814</v>
       </c>
       <c r="D5" t="n">
-        <v>63.5422910334111</v>
+        <v>84.6032944913601</v>
       </c>
       <c r="E5" t="n">
-        <v>29.5279582638893</v>
+        <v>38.3934177334396</v>
       </c>
       <c r="F5" t="n">
-        <v>22.6255472017253</v>
+        <v>29.1098225226393</v>
       </c>
       <c r="G5" t="n">
-        <v>19.5904241211377</v>
+        <v>25.0680041867582</v>
       </c>
       <c r="H5" t="n">
-        <v>17.8656220398662</v>
+        <v>22.7893026432602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.21253210412604</v>
+        <v>4.46636772675413</v>
       </c>
       <c r="B6" t="n">
-        <v>10.653892543549</v>
+        <v>13.9949484956174</v>
       </c>
       <c r="C6" t="n">
-        <v>66.1781282260975</v>
+        <v>80.6473329229081</v>
       </c>
       <c r="D6" t="n">
-        <v>108.672975171035</v>
+        <v>128.708575138286</v>
       </c>
       <c r="E6" t="n">
-        <v>49.1373088935546</v>
+        <v>57.5733719818541</v>
       </c>
       <c r="F6" t="n">
-        <v>37.1597208615886</v>
+        <v>43.3303121325517</v>
       </c>
       <c r="G6" t="n">
-        <v>31.9484404544394</v>
+        <v>37.1611442055441</v>
       </c>
       <c r="H6" t="n">
-        <v>29.0140428065799</v>
+        <v>33.6996715869645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.84987378872995</v>
+        <v>5.52419390902508</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5220376351398</v>
+        <v>16.2838008367685</v>
       </c>
       <c r="C7" t="n">
-        <v>82.1298409022409</v>
+        <v>89.8022030812301</v>
       </c>
       <c r="D7" t="n">
-        <v>130.029820911206</v>
+        <v>140.672406913844</v>
       </c>
       <c r="E7" t="n">
-        <v>57.9104796523426</v>
+        <v>62.3932150088647</v>
       </c>
       <c r="F7" t="n">
-        <v>43.4811113584469</v>
+        <v>46.7603454490401</v>
       </c>
       <c r="G7" t="n">
-        <v>37.2394636300213</v>
+        <v>40.0097558819192</v>
       </c>
       <c r="H7" t="n">
-        <v>33.7411039586079</v>
+        <v>36.2313305021628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.98014335974149</v>
+        <v>1.75826177510449</v>
       </c>
       <c r="B8" t="n">
-        <v>-19.4001436966651</v>
+        <v>12.9278128648942</v>
       </c>
       <c r="C8" t="n">
-        <v>-74.8537775719817</v>
+        <v>69.4652891868795</v>
       </c>
       <c r="D8" t="n">
-        <v>-94.0471822364297</v>
+        <v>107.869085940078</v>
       </c>
       <c r="E8" t="n">
-        <v>-37.0066406151762</v>
+        <v>48.2635966039511</v>
       </c>
       <c r="F8" t="n">
-        <v>-25.8848057313403</v>
+        <v>36.5519380261616</v>
       </c>
       <c r="G8" t="n">
-        <v>-21.2207877156019</v>
+        <v>31.5485785925111</v>
       </c>
       <c r="H8" t="n">
-        <v>-18.6842512556523</v>
+        <v>28.7616158485661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.83647190219475</v>
+        <v>2.75051272375149</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.13350187094085</v>
+        <v>15.2147514582075</v>
       </c>
       <c r="C9" t="n">
-        <v>-21.7674055161836</v>
+        <v>78.5748390894543</v>
       </c>
       <c r="D9" t="n">
-        <v>-21.5416146454661</v>
+        <v>119.256717996235</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.98328876092935</v>
+        <v>52.5315533414941</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.25301056793771</v>
+        <v>39.341155962717</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.1736028314814</v>
+        <v>33.6779567357617</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.62332118983767</v>
+        <v>30.5147441708774</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.388096358378882</v>
+        <v>3.5160399017743</v>
       </c>
       <c r="B10" t="n">
-        <v>5.14177764743165</v>
+        <v>16.3754733364937</v>
       </c>
       <c r="C10" t="n">
-        <v>30.7575569701564</v>
+        <v>81.4417437382641</v>
       </c>
       <c r="D10" t="n">
-        <v>49.3812134420026</v>
+        <v>120.728953044556</v>
       </c>
       <c r="E10" t="n">
-        <v>22.1557355586346</v>
+        <v>52.347121190561</v>
       </c>
       <c r="F10" t="n">
-        <v>16.6671174645991</v>
+        <v>38.7918089952571</v>
       </c>
       <c r="G10" t="n">
-        <v>14.2662881548083</v>
+        <v>32.9736331540038</v>
       </c>
       <c r="H10" t="n">
-        <v>12.9078531236985</v>
+        <v>29.7330220954795</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.891492082634289</v>
+        <v>1.88197142664063</v>
       </c>
       <c r="B5" t="n">
-        <v>3.60767494892083</v>
+        <v>6.28129459171371</v>
       </c>
       <c r="C5" t="n">
-        <v>27.3267692719559</v>
+        <v>38.8298674675494</v>
       </c>
       <c r="D5" t="n">
-        <v>47.9853069986711</v>
+        <v>63.8899698648301</v>
       </c>
       <c r="E5" t="n">
-        <v>22.2986631311681</v>
+        <v>28.9936026338524</v>
       </c>
       <c r="F5" t="n">
-        <v>17.0861612137473</v>
+        <v>21.9828990693963</v>
       </c>
       <c r="G5" t="n">
-        <v>14.7941237308028</v>
+        <v>18.9306343410418</v>
       </c>
       <c r="H5" t="n">
-        <v>13.4916029051335</v>
+        <v>17.209824604018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.816959422362566</v>
+        <v>-1.1358147031189</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.70932635571544</v>
+        <v>-3.55896989302893</v>
       </c>
       <c r="C6" t="n">
-        <v>-16.8293556784039</v>
+        <v>-20.5089307699555</v>
       </c>
       <c r="D6" t="n">
-        <v>-27.6359607140183</v>
+        <v>-32.7310917961048</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.4958089721722</v>
+        <v>-14.6411326620988</v>
       </c>
       <c r="F6" t="n">
-        <v>-9.44986169982461</v>
+        <v>-11.0190670857838</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.12461280169656</v>
+        <v>-9.45022366173441</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.37838405450416</v>
+        <v>-8.56995769727398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.13970881245156</v>
+        <v>-1.29817243789675</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.41264432612302</v>
+        <v>-3.82665449088545</v>
       </c>
       <c r="C7" t="n">
-        <v>-19.3003173936286</v>
+        <v>-21.1033042688817</v>
       </c>
       <c r="D7" t="n">
-        <v>-30.5566988399522</v>
+        <v>-33.0576812536939</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.6088250680757</v>
+        <v>-14.6622572216276</v>
       </c>
       <c r="F7" t="n">
-        <v>-10.2179578168748</v>
+        <v>-10.9885700335938</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.75118543676968</v>
+        <v>-9.40219753112383</v>
       </c>
       <c r="H7" t="n">
-        <v>-7.92907922940814</v>
+        <v>-8.51427654800341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.90515062612024</v>
+        <v>0.764606621172053</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.43644475025788</v>
+        <v>5.62185418219874</v>
       </c>
       <c r="C8" t="n">
-        <v>-32.5512928516438</v>
+        <v>30.2080274996384</v>
       </c>
       <c r="D8" t="n">
-        <v>-40.8978340192122</v>
+        <v>46.908497072149</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.0928951776915</v>
+        <v>20.9881520757994</v>
       </c>
       <c r="F8" t="n">
-        <v>-11.2563977276699</v>
+        <v>15.89516090675</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.22817922995083</v>
+        <v>13.7193746812629</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.12512813734179</v>
+        <v>12.5074219463787</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.88750233869273</v>
+        <v>1.07342693262193</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.78395113974709</v>
+        <v>5.9377743819753</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.49504135450993</v>
+        <v>30.6649548561314</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.4069232375947</v>
+        <v>46.5416399959989</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.72532832497991</v>
+        <v>20.5011900807771</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.65979820741324</v>
+        <v>15.3534488338094</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.23854389886659</v>
+        <v>13.1433043314687</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.02378861721782</v>
+        <v>11.9088153827596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.152132000398085</v>
+        <v>1.37827158690886</v>
       </c>
       <c r="B10" t="n">
-        <v>2.01555335992687</v>
+        <v>6.41911077587131</v>
       </c>
       <c r="C10" t="n">
-        <v>12.0568218902478</v>
+        <v>31.9247916743259</v>
       </c>
       <c r="D10" t="n">
-        <v>19.3572101897503</v>
+        <v>47.3251983331008</v>
       </c>
       <c r="E10" t="n">
-        <v>8.68494717370033</v>
+        <v>20.5198324845564</v>
       </c>
       <c r="F10" t="n">
-        <v>6.53343394241264</v>
+        <v>15.2062119988962</v>
       </c>
       <c r="G10" t="n">
-        <v>5.59231981539922</v>
+        <v>12.9255136354925</v>
       </c>
       <c r="H10" t="n">
-        <v>5.05981948595316</v>
+        <v>11.6552088975022</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.57136600342449</v>
+        <v>3.31720940302787</v>
       </c>
       <c r="B5" t="n">
-        <v>6.35897713122586</v>
+        <v>11.0715652681371</v>
       </c>
       <c r="C5" t="n">
-        <v>48.1668396767933</v>
+        <v>68.4424851824688</v>
       </c>
       <c r="D5" t="n">
-        <v>84.580089437015</v>
+        <v>112.614041740843</v>
       </c>
       <c r="E5" t="n">
-        <v>39.3041753804408</v>
+        <v>51.1048414036493</v>
       </c>
       <c r="F5" t="n">
-        <v>30.1164905256109</v>
+        <v>38.7476018320754</v>
       </c>
       <c r="G5" t="n">
-        <v>26.0764885453003</v>
+        <v>33.3676044983745</v>
       </c>
       <c r="H5" t="n">
-        <v>23.7806331091407</v>
+        <v>30.3344626771585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.9829764622494</v>
+        <v>4.147217636688</v>
       </c>
       <c r="B6" t="n">
-        <v>9.89260485457059</v>
+        <v>12.9949213267633</v>
       </c>
       <c r="C6" t="n">
-        <v>61.4492843699926</v>
+        <v>74.8845733069094</v>
       </c>
       <c r="D6" t="n">
-        <v>100.907606993705</v>
+        <v>119.511537218276</v>
       </c>
       <c r="E6" t="n">
-        <v>45.6261388514986</v>
+        <v>53.4593921267353</v>
       </c>
       <c r="F6" t="n">
-        <v>34.5044248838822</v>
+        <v>40.2340885643801</v>
       </c>
       <c r="G6" t="n">
-        <v>29.6655232670728</v>
+        <v>34.5057465209521</v>
       </c>
       <c r="H6" t="n">
-        <v>26.9408068033205</v>
+        <v>31.2916179110988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.01962904988073</v>
+        <v>5.71755172007847</v>
       </c>
       <c r="B7" t="n">
-        <v>15.0303379329585</v>
+        <v>16.8537663624686</v>
       </c>
       <c r="C7" t="n">
-        <v>85.0045492344514</v>
+        <v>92.9454594008881</v>
       </c>
       <c r="D7" t="n">
-        <v>134.581124134284</v>
+        <v>145.59622188566</v>
       </c>
       <c r="E7" t="n">
-        <v>59.9374620079648</v>
+        <v>64.5771020478386</v>
       </c>
       <c r="F7" t="n">
-        <v>45.0030370281275</v>
+        <v>48.3970508560237</v>
       </c>
       <c r="G7" t="n">
-        <v>38.5429191731983</v>
+        <v>41.4101771823862</v>
       </c>
       <c r="H7" t="n">
-        <v>34.92210993186</v>
+        <v>37.4994993740058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.71932368891809</v>
+        <v>0.72822274762143</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.03499578223864</v>
+        <v>5.35433775476889</v>
       </c>
       <c r="C8" t="n">
-        <v>-31.0023367084077</v>
+        <v>28.7705758449878</v>
       </c>
       <c r="D8" t="n">
-        <v>-38.9517069778737</v>
+        <v>44.6763520989514</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.3271133403448</v>
+        <v>19.9894290069139</v>
       </c>
       <c r="F8" t="n">
-        <v>-10.720761048339</v>
+        <v>15.1387882721376</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.78905550683903</v>
+        <v>13.0665370262194</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.73849319782415</v>
+        <v>11.9122551691884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.28400156878772</v>
+        <v>1.29891695910984</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.36876338654743</v>
+        <v>7.18509626479827</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.2795569482872</v>
+        <v>37.1066056780185</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.1729282500614</v>
+        <v>56.3184355249268</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.29782593754394</v>
+        <v>24.8077839940271</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.00846464234237</v>
+        <v>18.5786796147813</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.49871931283698</v>
+        <v>15.9042598765308</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.23885134333239</v>
+        <v>14.4104473192148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.178082620634598</v>
+        <v>1.61337664331419</v>
       </c>
       <c r="B10" t="n">
-        <v>2.35936570494976</v>
+        <v>7.51408031262131</v>
       </c>
       <c r="C10" t="n">
-        <v>14.1134700991346</v>
+        <v>37.370510804439</v>
       </c>
       <c r="D10" t="n">
-        <v>22.6591559287013</v>
+        <v>55.3979131225357</v>
       </c>
       <c r="E10" t="n">
-        <v>10.1664222433051</v>
+        <v>24.0200979036016</v>
       </c>
       <c r="F10" t="n">
-        <v>7.64790468253462</v>
+        <v>17.800082005119</v>
       </c>
       <c r="G10" t="n">
-        <v>6.5462556565819</v>
+        <v>15.1303429602816</v>
       </c>
       <c r="H10" t="n">
-        <v>5.922921618323</v>
+        <v>13.643350110954</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>2.70511372140762</v>
@@ -490,39 +502,45 @@
         <v>0.0745648808849624</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00505893238148029</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00505893238148029</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.575</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>2.60780702616538</v>
@@ -537,39 +555,45 @@
         <v>0.0968051197768813</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00503739667832701</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00503739667832701</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.566666666666667</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>2.48034341036835</v>
@@ -584,39 +608,45 @@
         <v>0.0964157975665196</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00503076168863033</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00503076168863033</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.566666666666667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>2.55817565015241</v>
@@ -631,39 +661,45 @@
         <v>0.0962326990343258</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00499105494610326</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00499105494610326</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>2.45140689156336</v>
@@ -678,39 +714,45 @@
         <v>0.0736747231377303</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00497190006952859</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00497190006952859</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>2.37462972491382</v>
@@ -725,39 +767,45 @@
         <v>0.0735958000277809</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00493672208628069</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00493672208628069</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.554166666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>2.38731418503871</v>
@@ -772,39 +820,45 @@
         <v>0.092856840859124</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00461446286142135</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00461446286142135</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>2.33505209610936</v>
@@ -819,39 +873,45 @@
         <v>0.0930900607969652</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00461206895429013</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00461206895429013</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.554166666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>2.2906138257326</v>
@@ -866,39 +926,45 @@
         <v>0.0929529575362909</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00461434904179855</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00461434904179855</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.554166666666667</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>2.21208505938825</v>
@@ -913,33 +979,39 @@
         <v>0.0888884643469696</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00448424283126184</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00448424283126184</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.533333333333333</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>-0.0143235834620072</v>
       </c>
       <c r="E2" t="n">
+        <v>0.00057468955021845</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00057468955021845</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0416666666666666</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>0.00791665542991171</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000553153847065172</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000553153847065172</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>0.00752733321954997</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000546518857368486</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000546518857368486</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>0.00734423468735618</v>
       </c>
       <c r="E5" t="n">
+        <v>0.000506812114841418</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000506812114841418</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.025</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>-0.0152137412092393</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000487657238266744</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000487657238266744</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.025</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>-0.0152926643191887</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000452479255018845</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000452479255018845</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>0.00396837651215434</v>
       </c>
       <c r="E8" t="n">
+        <v>0.000130220030159511</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.000130220030159511</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.025</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>0.00420159644999561</v>
       </c>
       <c r="E9" t="n">
+        <v>0.000127826123028286</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000127826123028286</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>0.00406449318932126</v>
       </c>
       <c r="E10" t="n">
+        <v>0.000130106210536708</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000130106210536708</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>-0.161141083572961</v>
       </c>
       <c r="E2" t="n">
+        <v>0.128157544504952</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.128157544504952</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0781249999999999</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>0.0890627989590373</v>
       </c>
       <c r="E3" t="n">
+        <v>0.12335501619334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.12335501619334</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0625</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>0.0846829031736624</v>
       </c>
       <c r="E4" t="n">
+        <v>0.121875393000227</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.121875393000227</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0625</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>0.0826230348483521</v>
       </c>
       <c r="E5" t="n">
+        <v>0.113020666790876</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.113020666790876</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.046875</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>-0.171155406058694</v>
       </c>
       <c r="E6" t="n">
+        <v>0.108749070158968</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.108749070158968</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.046875</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>-0.172043295286269</v>
       </c>
       <c r="E7" t="n">
+        <v>0.10090427125498</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.10090427125498</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0390625000000001</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>0.044644448987937</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0290394688823904</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0290394688823904</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.046875</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>0.0472681858198718</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0285056201990553</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0285056201990553</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0390625000000001</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>0.0457257667705429</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0290140867549979</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0290140867549979</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0390625000000001</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.42536054300051</v>
+        <v>1.47850283144738</v>
       </c>
       <c r="B2" t="n">
-        <v>9.84396383725904</v>
+        <v>6.00089271183053</v>
       </c>
       <c r="C2" t="n">
-        <v>58.255789572566</v>
+        <v>35.5128024490268</v>
       </c>
       <c r="D2" t="n">
-        <v>94.2577979777214</v>
+        <v>57.4596719643372</v>
       </c>
       <c r="E2" t="n">
-        <v>42.6040790392397</v>
+        <v>25.9715000610986</v>
       </c>
       <c r="F2" t="n">
-        <v>32.2921217603218</v>
+        <v>19.685317959784</v>
       </c>
       <c r="G2" t="n">
-        <v>27.8263035166769</v>
+        <v>16.9629495527389</v>
       </c>
       <c r="H2" t="n">
-        <v>25.3169614012089</v>
+        <v>15.4332514492974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.91946041148737</v>
+        <v>1.98586391763764</v>
       </c>
       <c r="B3" t="n">
-        <v>14.2220810998869</v>
+        <v>7.20586885051961</v>
       </c>
       <c r="C3" t="n">
-        <v>79.2655099909982</v>
+        <v>40.1612721340218</v>
       </c>
       <c r="D3" t="n">
-        <v>124.68899036354</v>
+        <v>63.1758815993897</v>
       </c>
       <c r="E3" t="n">
-        <v>55.5348902486796</v>
+        <v>28.1377340594106</v>
       </c>
       <c r="F3" t="n">
-        <v>41.7385670442631</v>
+        <v>21.1475829744757</v>
       </c>
       <c r="G3" t="n">
-        <v>35.7776811147975</v>
+        <v>18.127394723617</v>
       </c>
       <c r="H3" t="n">
-        <v>32.4373330680325</v>
+        <v>16.434948324878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.57905259459832</v>
+        <v>2.34822452766871</v>
       </c>
       <c r="B4" t="n">
-        <v>15.2155129457201</v>
+        <v>7.80280199060146</v>
       </c>
       <c r="C4" t="n">
-        <v>81.3610440977529</v>
+        <v>41.7234778155759</v>
       </c>
       <c r="D4" t="n">
-        <v>125.482960744179</v>
+        <v>64.3500287748538</v>
       </c>
       <c r="E4" t="n">
-        <v>55.311252669796</v>
+        <v>28.3646534937189</v>
       </c>
       <c r="F4" t="n">
-        <v>41.326550287627</v>
+        <v>21.1930343721795</v>
       </c>
       <c r="G4" t="n">
-        <v>35.2978637951108</v>
+        <v>18.1014102427577</v>
       </c>
       <c r="H4" t="n">
-        <v>31.9281149585053</v>
+        <v>16.3733394886601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.31720940302787</v>
+        <v>1.37580316221851</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0715652681371</v>
+        <v>4.59190019560055</v>
       </c>
       <c r="C5" t="n">
-        <v>68.4424851824688</v>
+        <v>28.3863260058843</v>
       </c>
       <c r="D5" t="n">
-        <v>112.614041740843</v>
+        <v>46.706353417375</v>
       </c>
       <c r="E5" t="n">
-        <v>51.1048414036493</v>
+        <v>21.1955875753996</v>
       </c>
       <c r="F5" t="n">
-        <v>38.7476018320754</v>
+        <v>16.0704576202798</v>
       </c>
       <c r="G5" t="n">
-        <v>33.3676044983745</v>
+        <v>13.8391190325872</v>
       </c>
       <c r="H5" t="n">
-        <v>30.3344626771585</v>
+        <v>12.5811320917335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.147217636688</v>
+        <v>1.78760909344399</v>
       </c>
       <c r="B6" t="n">
-        <v>12.9949213267633</v>
+        <v>5.60130708521556</v>
       </c>
       <c r="C6" t="n">
-        <v>74.8845733069094</v>
+        <v>32.2781093082469</v>
       </c>
       <c r="D6" t="n">
-        <v>119.511537218276</v>
+        <v>51.5140340870742</v>
       </c>
       <c r="E6" t="n">
-        <v>53.4593921267353</v>
+        <v>23.0430384579621</v>
       </c>
       <c r="F6" t="n">
-        <v>40.2340885643801</v>
+        <v>17.3424278359201</v>
       </c>
       <c r="G6" t="n">
-        <v>34.5057465209521</v>
+        <v>14.8732937744226</v>
       </c>
       <c r="H6" t="n">
-        <v>31.2916179110988</v>
+        <v>13.4878816659178</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.71755172007847</v>
+        <v>2.21340346932581</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8537663624686</v>
+        <v>6.52450327766911</v>
       </c>
       <c r="C7" t="n">
-        <v>92.9454594008881</v>
+        <v>35.9814501674824</v>
       </c>
       <c r="D7" t="n">
-        <v>145.59622188566</v>
+        <v>56.3638421513095</v>
       </c>
       <c r="E7" t="n">
-        <v>64.5771020478386</v>
+        <v>24.999368385203</v>
       </c>
       <c r="F7" t="n">
-        <v>48.3970508560237</v>
+        <v>18.735676652242</v>
       </c>
       <c r="G7" t="n">
-        <v>41.4101771823862</v>
+        <v>16.0308877520101</v>
       </c>
       <c r="H7" t="n">
-        <v>37.4994993740058</v>
+        <v>14.5169691637291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.72822274762143</v>
+        <v>1.1754843531403</v>
       </c>
       <c r="B8" t="n">
-        <v>5.35433775476889</v>
+        <v>8.64287784570982</v>
       </c>
       <c r="C8" t="n">
-        <v>28.7705758449878</v>
+        <v>46.4409575876097</v>
       </c>
       <c r="D8" t="n">
-        <v>44.6763520989514</v>
+        <v>72.1157819077151</v>
       </c>
       <c r="E8" t="n">
-        <v>19.9894290069139</v>
+        <v>32.2665847813522</v>
       </c>
       <c r="F8" t="n">
-        <v>15.1387882721376</v>
+        <v>24.4367658076133</v>
       </c>
       <c r="G8" t="n">
-        <v>13.0665370262194</v>
+        <v>21.0917742877677</v>
       </c>
       <c r="H8" t="n">
-        <v>11.9122551691884</v>
+        <v>19.2285528126279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.29891695910984</v>
+        <v>1.77996280596308</v>
       </c>
       <c r="B9" t="n">
-        <v>7.18509626479827</v>
+        <v>9.84605214283268</v>
       </c>
       <c r="C9" t="n">
-        <v>37.1066056780185</v>
+        <v>50.8488071536727</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3184355249268</v>
+        <v>77.1756191351123</v>
       </c>
       <c r="E9" t="n">
-        <v>24.8077839940271</v>
+        <v>33.9951930706913</v>
       </c>
       <c r="F9" t="n">
-        <v>18.5786796147813</v>
+        <v>25.4591784842642</v>
       </c>
       <c r="G9" t="n">
-        <v>15.9042598765308</v>
+        <v>21.7943039684355</v>
       </c>
       <c r="H9" t="n">
-        <v>14.4104473192148</v>
+        <v>19.7472671871733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.61337664331419</v>
+        <v>2.17213540655745</v>
       </c>
       <c r="B10" t="n">
-        <v>7.51408031262131</v>
+        <v>10.1164225739833</v>
       </c>
       <c r="C10" t="n">
-        <v>37.370510804439</v>
+        <v>50.3129941888294</v>
       </c>
       <c r="D10" t="n">
-        <v>55.3979131225357</v>
+        <v>74.5838047436145</v>
       </c>
       <c r="E10" t="n">
-        <v>24.0200979036016</v>
+        <v>32.3389490864403</v>
       </c>
       <c r="F10" t="n">
-        <v>17.800082005119</v>
+        <v>23.9647626753301</v>
       </c>
       <c r="G10" t="n">
-        <v>15.1303429602816</v>
+        <v>20.3704161663539</v>
       </c>
       <c r="H10" t="n">
-        <v>13.643350110954</v>
+        <v>18.3684348988631</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>1.47850283144738</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.00089271183053</v>
+      </c>
+      <c r="C2" t="n">
+        <v>35.5128024490268</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.4596719643372</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25.9715000610986</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19.685317959784</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16.9629495527389</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15.4332514492974</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>1.98586391763764</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.20586885051961</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40.1612721340218</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63.1758815993897</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.1377340594106</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.1475829744757</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.127394723617</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16.434948324878</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>2.34822452766871</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.80280199060146</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41.7234778155759</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.3500287748538</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28.3646534937189</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.1930343721795</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.1014102427577</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.3733394886601</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>1.37580316221851</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.59190019560055</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28.3863260058843</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.706353417375</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.1955875753996</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.0704576202798</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.8391190325872</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.5811320917335</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>1.78760909344399</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.60130708521556</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32.2781093082469</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51.5140340870742</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.0430384579621</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17.3424278359201</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.8732937744226</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.4878816659178</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+      <c r="A7" t="n">
+        <v>2.21340346932581</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.52450327766911</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35.9814501674824</v>
+      </c>
+      <c r="D7" t="n">
+        <v>56.3638421513095</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24.999368385203</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.735676652242</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16.0308877520101</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.5169691637291</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>1.1754843531403</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.64287784570982</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46.4409575876097</v>
+      </c>
+      <c r="D8" t="n">
+        <v>72.1157819077151</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32.2665847813522</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.4367658076133</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.0917742877677</v>
+      </c>
+      <c r="H8" t="n">
+        <v>19.2285528126279</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>1.77996280596308</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.84605214283268</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50.8488071536727</v>
+      </c>
+      <c r="D9" t="n">
+        <v>77.1756191351123</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33.9951930706913</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.4591784842642</v>
+      </c>
+      <c r="G9" t="n">
+        <v>21.7943039684355</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19.7472671871733</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>2.17213540655745</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10.1164225739833</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50.3129941888294</v>
+      </c>
+      <c r="D10" t="n">
+        <v>74.5838047436145</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.3389490864403</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.9647626753301</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20.3704161663539</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.3684348988631</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.42536054300051</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.84396383725904</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58.255789572566</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.2577979777214</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42.6040790392397</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.2921217603218</v>
+      </c>
+      <c r="G2" t="n">
+        <v>27.8263035166769</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.3169614012089</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.91946041148737</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.2220810998869</v>
+      </c>
+      <c r="C3" t="n">
+        <v>79.2655099909982</v>
+      </c>
+      <c r="D3" t="n">
+        <v>124.68899036354</v>
+      </c>
+      <c r="E3" t="n">
+        <v>55.5348902486796</v>
+      </c>
+      <c r="F3" t="n">
+        <v>41.7385670442631</v>
+      </c>
+      <c r="G3" t="n">
+        <v>35.7776811147975</v>
+      </c>
+      <c r="H3" t="n">
+        <v>32.4373330680325</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.57905259459832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.2155129457201</v>
+      </c>
+      <c r="C4" t="n">
+        <v>81.3610440977529</v>
+      </c>
+      <c r="D4" t="n">
+        <v>125.482960744179</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.311252669796</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41.326550287627</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35.2978637951108</v>
+      </c>
+      <c r="H4" t="n">
+        <v>31.9281149585053</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.31720940302787</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.0715652681371</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68.4424851824688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>112.614041740843</v>
+      </c>
+      <c r="E5" t="n">
+        <v>51.1048414036493</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38.7476018320754</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.3676044983745</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30.3344626771585</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4.147217636688</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.9949213267633</v>
+      </c>
+      <c r="C6" t="n">
+        <v>74.8845733069094</v>
+      </c>
+      <c r="D6" t="n">
+        <v>119.511537218276</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53.4593921267353</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40.2340885643801</v>
+      </c>
+      <c r="G6" t="n">
+        <v>34.5057465209521</v>
+      </c>
+      <c r="H6" t="n">
+        <v>31.2916179110988</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.71755172007847</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.8537663624686</v>
+      </c>
+      <c r="C7" t="n">
+        <v>92.9454594008881</v>
+      </c>
+      <c r="D7" t="n">
+        <v>145.59622188566</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.5771020478386</v>
+      </c>
+      <c r="F7" t="n">
+        <v>48.3970508560237</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41.4101771823862</v>
+      </c>
+      <c r="H7" t="n">
+        <v>37.4994993740058</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.72822274762143</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.35433775476889</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28.7705758449878</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44.6763520989514</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.9894290069139</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.1387882721376</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.0665370262194</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11.9122551691884</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.29891695910984</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.18509626479827</v>
+      </c>
+      <c r="C9" t="n">
+        <v>37.1066056780185</v>
+      </c>
+      <c r="D9" t="n">
+        <v>56.3184355249268</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24.8077839940271</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.5786796147813</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15.9042598765308</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.4104473192148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.61337664331419</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.51408031262131</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37.370510804439</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55.3979131225357</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24.0200979036016</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.800082005119</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.1303429602816</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.643350110954</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_12.xlsx
@@ -504,7 +504,7 @@
         <v>0.0745648808849624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00505893238148029</v>
+        <v>1.36758253409017</v>
       </c>
       <c r="G2" t="n">
         <v>0.00505893238148029</v>
@@ -557,7 +557,7 @@
         <v>0.0968051197768813</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00503739667832701</v>
+        <v>1.35136150070827</v>
       </c>
       <c r="G3" t="n">
         <v>0.00503739667832701</v>
@@ -610,7 +610,7 @@
         <v>0.0964157975665196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00503076168863033</v>
+        <v>1.32150187980353</v>
       </c>
       <c r="G4" t="n">
         <v>0.00503076168863033</v>
@@ -663,7 +663,7 @@
         <v>0.0962326990343258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00499105494610326</v>
+        <v>1.32574943413208</v>
       </c>
       <c r="G5" t="n">
         <v>0.00499105494610326</v>
@@ -716,7 +716,7 @@
         <v>0.0736747231377303</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00497190006952859</v>
+        <v>1.3233421677602</v>
       </c>
       <c r="G6" t="n">
         <v>0.00497190006952859</v>
@@ -769,7 +769,7 @@
         <v>0.0735958000277809</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00493672208628069</v>
+        <v>1.32014906217571</v>
       </c>
       <c r="G7" t="n">
         <v>0.00493672208628069</v>
@@ -822,7 +822,7 @@
         <v>0.092856840859124</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00461446286142135</v>
+        <v>1.29717521815193</v>
       </c>
       <c r="G8" t="n">
         <v>0.00461446286142135</v>
@@ -875,7 +875,7 @@
         <v>0.0930900607969652</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00461206895429013</v>
+        <v>1.29463729000766</v>
       </c>
       <c r="G9" t="n">
         <v>0.00461206895429013</v>
@@ -928,7 +928,7 @@
         <v>0.0929529575362909</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00461434904179855</v>
+        <v>1.27840418034981</v>
       </c>
       <c r="G10" t="n">
         <v>0.00461434904179855</v>
@@ -981,7 +981,7 @@
         <v>0.0888884643469696</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00448424283126184</v>
+        <v>1.23211969847454</v>
       </c>
       <c r="G11" t="n">
         <v>0.00448424283126184</v>
@@ -1695,7 +1695,7 @@
         <v>-0.0143235834620072</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00057468955021845</v>
+        <v>0.135462835615629</v>
       </c>
       <c r="F2" t="n">
         <v>0.00057468955021845</v>
@@ -1745,7 +1745,7 @@
         <v>0.00791665542991171</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000553153847065172</v>
+        <v>0.119241802233728</v>
       </c>
       <c r="F3" t="n">
         <v>0.000553153847065172</v>
@@ -1795,7 +1795,7 @@
         <v>0.00752733321954997</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000546518857368486</v>
+        <v>0.0893821813289886</v>
       </c>
       <c r="F4" t="n">
         <v>0.000546518857368486</v>
@@ -1845,7 +1845,7 @@
         <v>0.00734423468735618</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000506812114841418</v>
+        <v>0.0936297356575408</v>
       </c>
       <c r="F5" t="n">
         <v>0.000506812114841418</v>
@@ -1895,7 +1895,7 @@
         <v>-0.0152137412092393</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000487657238266744</v>
+        <v>0.0912224692856569</v>
       </c>
       <c r="F6" t="n">
         <v>0.000487657238266744</v>
@@ -1945,7 +1945,7 @@
         <v>-0.0152926643191887</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000452479255018845</v>
+        <v>0.0880293637011695</v>
       </c>
       <c r="F7" t="n">
         <v>0.000452479255018845</v>
@@ -1995,7 +1995,7 @@
         <v>0.00396837651215434</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000130220030159511</v>
+        <v>0.065055519677393</v>
       </c>
       <c r="F8" t="n">
         <v>0.000130220030159511</v>
@@ -2045,7 +2045,7 @@
         <v>0.00420159644999561</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000127826123028286</v>
+        <v>0.0625175915331215</v>
       </c>
       <c r="F9" t="n">
         <v>0.000127826123028286</v>
@@ -2095,7 +2095,7 @@
         <v>0.00406449318932126</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000130106210536708</v>
+        <v>0.0462844818752719</v>
       </c>
       <c r="F10" t="n">
         <v>0.000130106210536708</v>
@@ -2259,7 +2259,7 @@
         <v>-0.161141083572961</v>
       </c>
       <c r="E2" t="n">
-        <v>0.128157544504952</v>
+        <v>0.109942918519477</v>
       </c>
       <c r="F2" t="n">
         <v>0.128157544504952</v>
@@ -2309,7 +2309,7 @@
         <v>0.0890627989590373</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12335501619334</v>
+        <v>0.0967777744170137</v>
       </c>
       <c r="F3" t="n">
         <v>0.12335501619334</v>
@@ -2359,7 +2359,7 @@
         <v>0.0846829031736624</v>
       </c>
       <c r="E4" t="n">
-        <v>0.121875393000227</v>
+        <v>0.0725434236946708</v>
       </c>
       <c r="F4" t="n">
         <v>0.121875393000227</v>
@@ -2409,7 +2409,7 @@
         <v>0.0826230348483521</v>
       </c>
       <c r="E5" t="n">
-        <v>0.113020666790876</v>
+        <v>0.0759907789587828</v>
       </c>
       <c r="F5" t="n">
         <v>0.113020666790876</v>
@@ -2459,7 +2459,7 @@
         <v>-0.171155406058694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.108749070158968</v>
+        <v>0.0740370188047456</v>
       </c>
       <c r="F6" t="n">
         <v>0.108749070158968</v>
@@ -2509,7 +2509,7 @@
         <v>-0.172043295286269</v>
       </c>
       <c r="E7" t="n">
-        <v>0.10090427125498</v>
+        <v>0.0714454641137195</v>
       </c>
       <c r="F7" t="n">
         <v>0.10090427125498</v>
@@ -2559,7 +2559,7 @@
         <v>0.044644448987937</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0290394688823904</v>
+        <v>0.0527996750298991</v>
       </c>
       <c r="F8" t="n">
         <v>0.0290394688823904</v>
@@ -2609,7 +2609,7 @@
         <v>0.0472681858198718</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0285056201990553</v>
+        <v>0.0507398685456642</v>
       </c>
       <c r="F9" t="n">
         <v>0.0285056201990553</v>
@@ -2659,7 +2659,7 @@
         <v>0.0457257667705429</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0290140867549979</v>
+        <v>0.0375649232234301</v>
       </c>
       <c r="F10" t="n">
         <v>0.0290140867549979</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.47850283144738</v>
+        <v>1.72345154170477</v>
       </c>
       <c r="B2" t="n">
-        <v>6.00089271183053</v>
+        <v>6.99508149449041</v>
       </c>
       <c r="C2" t="n">
-        <v>35.5128024490268</v>
+        <v>41.3963320388883</v>
       </c>
       <c r="D2" t="n">
-        <v>57.4596719643372</v>
+        <v>66.9792158164777</v>
       </c>
       <c r="E2" t="n">
-        <v>25.9715000610986</v>
+        <v>30.2742888742847</v>
       </c>
       <c r="F2" t="n">
-        <v>19.685317959784</v>
+        <v>22.9466531041579</v>
       </c>
       <c r="G2" t="n">
-        <v>16.9629495527389</v>
+        <v>19.7732604474681</v>
       </c>
       <c r="H2" t="n">
-        <v>15.4332514492974</v>
+        <v>17.9901319348644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.98586391763764</v>
+        <v>2.53122452126668</v>
       </c>
       <c r="B3" t="n">
-        <v>7.20586885051961</v>
+        <v>9.18475418656314</v>
       </c>
       <c r="C3" t="n">
-        <v>40.1612721340218</v>
+        <v>51.1904143723153</v>
       </c>
       <c r="D3" t="n">
-        <v>63.1758815993897</v>
+        <v>80.5253266534222</v>
       </c>
       <c r="E3" t="n">
-        <v>28.1377340594106</v>
+        <v>35.864956199409</v>
       </c>
       <c r="F3" t="n">
-        <v>21.1475829744757</v>
+        <v>26.9551604795722</v>
       </c>
       <c r="G3" t="n">
-        <v>18.127394723617</v>
+        <v>23.1055640940812</v>
       </c>
       <c r="H3" t="n">
-        <v>16.434948324878</v>
+        <v>20.9483358029736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.34822452766871</v>
+        <v>3.94509622770147</v>
       </c>
       <c r="B4" t="n">
-        <v>7.80280199060146</v>
+        <v>13.1089699200034</v>
       </c>
       <c r="C4" t="n">
-        <v>41.7234778155759</v>
+        <v>70.0968467867214</v>
       </c>
       <c r="D4" t="n">
-        <v>64.3500287748538</v>
+        <v>108.110213815113</v>
       </c>
       <c r="E4" t="n">
-        <v>28.3646534937189</v>
+        <v>47.6535723818643</v>
       </c>
       <c r="F4" t="n">
-        <v>21.1930343721795</v>
+        <v>35.6050109221194</v>
       </c>
       <c r="G4" t="n">
-        <v>18.1014102427577</v>
+        <v>30.4109783469799</v>
       </c>
       <c r="H4" t="n">
-        <v>16.3733394886601</v>
+        <v>27.5077613279669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.37580316221851</v>
+        <v>2.04622446167148</v>
       </c>
       <c r="B5" t="n">
-        <v>4.59190019560055</v>
+        <v>6.82950785680748</v>
       </c>
       <c r="C5" t="n">
-        <v>28.3863260058843</v>
+        <v>42.2188262429626</v>
       </c>
       <c r="D5" t="n">
-        <v>46.706353417375</v>
+        <v>69.4661020577933</v>
       </c>
       <c r="E5" t="n">
-        <v>21.1955875753996</v>
+        <v>31.5240806005607</v>
       </c>
       <c r="F5" t="n">
-        <v>16.0704576202798</v>
+        <v>23.9015030608344</v>
       </c>
       <c r="G5" t="n">
-        <v>13.8391190325872</v>
+        <v>20.5828454753658</v>
       </c>
       <c r="H5" t="n">
-        <v>12.5811320917335</v>
+        <v>18.7118484304925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.78760909344399</v>
+        <v>2.62572466933649</v>
       </c>
       <c r="B6" t="n">
-        <v>5.60130708521556</v>
+        <v>8.22746440937176</v>
       </c>
       <c r="C6" t="n">
-        <v>32.2781093082469</v>
+        <v>47.4116115212405</v>
       </c>
       <c r="D6" t="n">
-        <v>51.5140340870742</v>
+        <v>75.6662463933195</v>
       </c>
       <c r="E6" t="n">
-        <v>23.0430384579621</v>
+        <v>33.846703262721</v>
       </c>
       <c r="F6" t="n">
-        <v>17.3424278359201</v>
+        <v>25.4733771281243</v>
       </c>
       <c r="G6" t="n">
-        <v>14.8732937744226</v>
+        <v>21.8465963957203</v>
       </c>
       <c r="H6" t="n">
-        <v>13.4878816659178</v>
+        <v>19.8116376545504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.21340346932581</v>
+        <v>3.12604679437834</v>
       </c>
       <c r="B7" t="n">
-        <v>6.52450327766911</v>
+        <v>9.21472421938554</v>
       </c>
       <c r="C7" t="n">
-        <v>35.9814501674824</v>
+        <v>50.8175298864075</v>
       </c>
       <c r="D7" t="n">
-        <v>56.3638421513095</v>
+        <v>79.6041076639389</v>
       </c>
       <c r="E7" t="n">
-        <v>24.999368385203</v>
+        <v>35.3072526021886</v>
       </c>
       <c r="F7" t="n">
-        <v>18.735676652242</v>
+        <v>26.4608792526606</v>
       </c>
       <c r="G7" t="n">
-        <v>16.0308877520101</v>
+        <v>22.6408361433871</v>
       </c>
       <c r="H7" t="n">
-        <v>14.5169691637291</v>
+        <v>20.502689883371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.1754843531403</v>
+        <v>0.646508549066344</v>
       </c>
       <c r="B8" t="n">
-        <v>8.64287784570982</v>
+        <v>4.75352513273359</v>
       </c>
       <c r="C8" t="n">
-        <v>46.4409575876097</v>
+        <v>25.5422167270938</v>
       </c>
       <c r="D8" t="n">
-        <v>72.1157819077151</v>
+        <v>39.6631987498494</v>
       </c>
       <c r="E8" t="n">
-        <v>32.2665847813522</v>
+        <v>17.746406283154</v>
       </c>
       <c r="F8" t="n">
-        <v>24.4367658076133</v>
+        <v>13.4400581036645</v>
       </c>
       <c r="G8" t="n">
-        <v>21.0917742877677</v>
+        <v>11.600335092161</v>
       </c>
       <c r="H8" t="n">
-        <v>19.2285528126279</v>
+        <v>10.5755757159397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.77996280596308</v>
+        <v>0.999981773101459</v>
       </c>
       <c r="B9" t="n">
-        <v>9.84605214283268</v>
+        <v>5.53150472968</v>
       </c>
       <c r="C9" t="n">
-        <v>50.8488071536727</v>
+        <v>28.566821827556</v>
       </c>
       <c r="D9" t="n">
-        <v>77.1756191351123</v>
+        <v>43.3572051081012</v>
       </c>
       <c r="E9" t="n">
-        <v>33.9951930706913</v>
+        <v>19.0984740410702</v>
       </c>
       <c r="F9" t="n">
-        <v>25.4591784842642</v>
+        <v>14.3029474307617</v>
       </c>
       <c r="G9" t="n">
-        <v>21.7943039684355</v>
+        <v>12.2440236688409</v>
       </c>
       <c r="H9" t="n">
-        <v>19.7472671871733</v>
+        <v>11.0939999361691</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.17213540655745</v>
+        <v>1.67769609842173</v>
       </c>
       <c r="B10" t="n">
-        <v>10.1164225739833</v>
+        <v>7.81363934822835</v>
       </c>
       <c r="C10" t="n">
-        <v>50.3129941888294</v>
+        <v>38.8603370654009</v>
       </c>
       <c r="D10" t="n">
-        <v>74.5838047436145</v>
+        <v>57.60642630568</v>
       </c>
       <c r="E10" t="n">
-        <v>32.3389490864403</v>
+        <v>24.9776917891904</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9647626753301</v>
+        <v>18.5097064937238</v>
       </c>
       <c r="G10" t="n">
-        <v>20.3704161663539</v>
+        <v>15.7335346693152</v>
       </c>
       <c r="H10" t="n">
-        <v>18.3684348988631</v>
+        <v>14.18726082679</v>
       </c>
     </row>
     <row r="11">
